--- a/Code/Results/Cases/Case_4_158/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_158/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.037429503707552</v>
+        <v>1.064724957604878</v>
       </c>
       <c r="D2">
-        <v>1.050818995262211</v>
+        <v>1.065175606566462</v>
       </c>
       <c r="E2">
-        <v>1.054375028754968</v>
+        <v>1.078354936185895</v>
       </c>
       <c r="F2">
-        <v>1.059726116398175</v>
+        <v>1.085505988433052</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.066558893059042</v>
+        <v>1.057525501861298</v>
       </c>
       <c r="J2">
-        <v>1.058545566176406</v>
+        <v>1.069683727384349</v>
       </c>
       <c r="K2">
-        <v>1.061612988812628</v>
+        <v>1.067889554220751</v>
       </c>
       <c r="L2">
-        <v>1.06512545187995</v>
+        <v>1.081033827295637</v>
       </c>
       <c r="M2">
-        <v>1.070411659284212</v>
+        <v>1.088166242620205</v>
       </c>
       <c r="N2">
-        <v>1.021243119391566</v>
+        <v>1.026653370081924</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.043691064130599</v>
+        <v>1.065974041395738</v>
       </c>
       <c r="D3">
-        <v>1.055797843770063</v>
+        <v>1.066174040841463</v>
       </c>
       <c r="E3">
-        <v>1.06033180630035</v>
+        <v>1.079594950794325</v>
       </c>
       <c r="F3">
-        <v>1.065973707580715</v>
+        <v>1.086817963724008</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.069320255638925</v>
+        <v>1.057991001003911</v>
       </c>
       <c r="J3">
-        <v>1.06305760384527</v>
+        <v>1.070586716200008</v>
       </c>
       <c r="K3">
-        <v>1.065763291989865</v>
+        <v>1.068702878649338</v>
       </c>
       <c r="L3">
-        <v>1.070246818249823</v>
+        <v>1.082090679619974</v>
       </c>
       <c r="M3">
-        <v>1.075826694114967</v>
+        <v>1.089296237341153</v>
       </c>
       <c r="N3">
-        <v>1.022950536027763</v>
+        <v>1.026979799345733</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.047636791312428</v>
+        <v>1.066781609236174</v>
       </c>
       <c r="D4">
-        <v>1.058937239231977</v>
+        <v>1.066819457602586</v>
       </c>
       <c r="E4">
-        <v>1.064090520336928</v>
+        <v>1.080397013076276</v>
       </c>
       <c r="F4">
-        <v>1.069917027836054</v>
+        <v>1.087666741834074</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.071049183824373</v>
+        <v>1.058290595151519</v>
       </c>
       <c r="J4">
-        <v>1.065895740397981</v>
+        <v>1.071169798661195</v>
       </c>
       <c r="K4">
-        <v>1.068372806885542</v>
+        <v>1.069227902708966</v>
       </c>
       <c r="L4">
-        <v>1.07347239471713</v>
+        <v>1.082773654718781</v>
       </c>
       <c r="M4">
-        <v>1.07923895384631</v>
+        <v>1.090026704884704</v>
       </c>
       <c r="N4">
-        <v>1.024021890387778</v>
+        <v>1.027190039827193</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.049271419572568</v>
+        <v>1.067120952719469</v>
       </c>
       <c r="D5">
-        <v>1.060238231604316</v>
+        <v>1.067090640115097</v>
       </c>
       <c r="E5">
-        <v>1.065648842571035</v>
+        <v>1.080734128394972</v>
       </c>
       <c r="F5">
-        <v>1.071552157432925</v>
+        <v>1.088023533175576</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.07176272695531</v>
+        <v>1.058416159137786</v>
       </c>
       <c r="J5">
-        <v>1.067070247765656</v>
+        <v>1.071414638541483</v>
       </c>
       <c r="K5">
-        <v>1.069452433291812</v>
+        <v>1.069448325070317</v>
       </c>
       <c r="L5">
-        <v>1.074808242206427</v>
+        <v>1.08306056935761</v>
       </c>
       <c r="M5">
-        <v>1.080652531735773</v>
+        <v>1.090333624849693</v>
       </c>
       <c r="N5">
-        <v>1.02446458982767</v>
+        <v>1.027278190688714</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.049544497772019</v>
+        <v>1.067177920804886</v>
       </c>
       <c r="D6">
-        <v>1.060455595481252</v>
+        <v>1.067136164067667</v>
       </c>
       <c r="E6">
-        <v>1.065909240828138</v>
+        <v>1.080790727412555</v>
       </c>
       <c r="F6">
-        <v>1.071825406493764</v>
+        <v>1.088083438040952</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.071881769542211</v>
+        <v>1.058437219319434</v>
       </c>
       <c r="J6">
-        <v>1.067266383121719</v>
+        <v>1.071455731407838</v>
       </c>
       <c r="K6">
-        <v>1.069632707940179</v>
+        <v>1.06948531754636</v>
       </c>
       <c r="L6">
-        <v>1.075031379695702</v>
+        <v>1.083108731453457</v>
       </c>
       <c r="M6">
-        <v>1.080888677792256</v>
+        <v>1.09038514824831</v>
       </c>
       <c r="N6">
-        <v>1.024538478279969</v>
+        <v>1.027292977888953</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.047658726680829</v>
+        <v>1.066786144177561</v>
       </c>
       <c r="D7">
-        <v>1.058954695941416</v>
+        <v>1.066823081746468</v>
       </c>
       <c r="E7">
-        <v>1.06411142716864</v>
+        <v>1.08040151790604</v>
       </c>
       <c r="F7">
-        <v>1.069938964051297</v>
+        <v>1.087671509431418</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.071058769771924</v>
+        <v>1.058292274456457</v>
       </c>
       <c r="J7">
-        <v>1.065911506398135</v>
+        <v>1.071173071352634</v>
       </c>
       <c r="K7">
-        <v>1.068387300333724</v>
+        <v>1.069230849171075</v>
       </c>
       <c r="L7">
-        <v>1.073490322478011</v>
+        <v>1.082777489300956</v>
       </c>
       <c r="M7">
-        <v>1.079257923134999</v>
+        <v>1.090030806623635</v>
       </c>
       <c r="N7">
-        <v>1.024027835609558</v>
+        <v>1.027191218622908</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.039568310096844</v>
+        <v>1.065147232488627</v>
       </c>
       <c r="D8">
-        <v>1.052519201860585</v>
+        <v>1.065513165080281</v>
       </c>
       <c r="E8">
-        <v>1.056408639656708</v>
+        <v>1.078774070683184</v>
       </c>
       <c r="F8">
-        <v>1.061858781673869</v>
+        <v>1.085949410927949</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.067504433765071</v>
+        <v>1.05768315459373</v>
       </c>
       <c r="J8">
-        <v>1.060087829779771</v>
+        <v>1.069989148830758</v>
       </c>
       <c r="K8">
-        <v>1.063031830253362</v>
+        <v>1.06816468117633</v>
       </c>
       <c r="L8">
-        <v>1.066875117074653</v>
+        <v>1.081391178909235</v>
       </c>
       <c r="M8">
-        <v>1.072261292817823</v>
+        <v>1.08854827908806</v>
       </c>
       <c r="N8">
-        <v>1.021827271435911</v>
+        <v>1.026763891901978</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.024441957346993</v>
+        <v>1.062253970031023</v>
       </c>
       <c r="D9">
-        <v>1.04050605255826</v>
+        <v>1.063199964968305</v>
       </c>
       <c r="E9">
-        <v>1.042049804490134</v>
+        <v>1.075903810372675</v>
       </c>
       <c r="F9">
-        <v>1.046804972067185</v>
+        <v>1.082913522070762</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.060771100123904</v>
+        <v>1.0565973841938</v>
       </c>
       <c r="J9">
-        <v>1.049160178868389</v>
+        <v>1.067893551991011</v>
       </c>
       <c r="K9">
-        <v>1.05297443677351</v>
+        <v>1.066276293322738</v>
       </c>
       <c r="L9">
-        <v>1.054495599933259</v>
+        <v>1.078941485143874</v>
       </c>
       <c r="M9">
-        <v>1.059181718624999</v>
+        <v>1.085930291476358</v>
       </c>
       <c r="N9">
-        <v>1.017678115830579</v>
+        <v>1.026003345103504</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.013682285305016</v>
+        <v>1.060321377631235</v>
       </c>
       <c r="D10">
-        <v>1.031978711395554</v>
+        <v>1.06165438130049</v>
       </c>
       <c r="E10">
-        <v>1.031868483991794</v>
+        <v>1.073988465432697</v>
       </c>
       <c r="F10">
-        <v>1.036136158802649</v>
+        <v>1.080888525508747</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.055924571254015</v>
+        <v>1.055865106337555</v>
       </c>
       <c r="J10">
-        <v>1.041363374076974</v>
+        <v>1.066490051462605</v>
       </c>
       <c r="K10">
-        <v>1.045793626678464</v>
+        <v>1.065010756097756</v>
       </c>
       <c r="L10">
-        <v>1.045685234013316</v>
+        <v>1.077303609186457</v>
       </c>
       <c r="M10">
-        <v>1.049882239920993</v>
+        <v>1.084181053335416</v>
       </c>
       <c r="N10">
-        <v>1.014706090134679</v>
+        <v>1.025491201769823</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.008840023972061</v>
+        <v>1.059483610458116</v>
       </c>
       <c r="D11">
-        <v>1.028146535417052</v>
+        <v>1.060984281673373</v>
       </c>
       <c r="E11">
-        <v>1.02729502700125</v>
+        <v>1.073158626844331</v>
       </c>
       <c r="F11">
-        <v>1.031344849579639</v>
+        <v>1.080011385929148</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053730605478659</v>
+        <v>1.055546004437451</v>
       </c>
       <c r="J11">
-        <v>1.037849616295738</v>
+        <v>1.065880763443341</v>
       </c>
       <c r="K11">
-        <v>1.042556478310621</v>
+        <v>1.064461170106137</v>
       </c>
       <c r="L11">
-        <v>1.041719925082013</v>
+        <v>1.076593231038147</v>
       </c>
       <c r="M11">
-        <v>1.045698905495935</v>
+        <v>1.08342264991068</v>
       </c>
       <c r="N11">
-        <v>1.013364402608769</v>
+        <v>1.025268216092983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.007011652436428</v>
+        <v>1.059172281062202</v>
       </c>
       <c r="D12">
-        <v>1.026700490763782</v>
+        <v>1.060735246501594</v>
       </c>
       <c r="E12">
-        <v>1.025569511144978</v>
+        <v>1.072850312200104</v>
       </c>
       <c r="F12">
-        <v>1.029537298446958</v>
+        <v>1.079685528238701</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052900328080786</v>
+        <v>1.055427170585454</v>
       </c>
       <c r="J12">
-        <v>1.036522202660983</v>
+        <v>1.065654209220561</v>
       </c>
       <c r="K12">
-        <v>1.041333426754927</v>
+        <v>1.064256786674947</v>
       </c>
       <c r="L12">
-        <v>1.040222705092108</v>
+        <v>1.076329186615683</v>
       </c>
       <c r="M12">
-        <v>1.04411967602633</v>
+        <v>1.083140795931205</v>
       </c>
       <c r="N12">
-        <v>1.012857242578626</v>
+        <v>1.025185204495488</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.007405228209923</v>
+        <v>1.059239068914631</v>
       </c>
       <c r="D13">
-        <v>1.027011722720222</v>
+        <v>1.060788671327479</v>
       </c>
       <c r="E13">
-        <v>1.025940883496417</v>
+        <v>1.072916450213915</v>
       </c>
       <c r="F13">
-        <v>1.029926319819629</v>
+        <v>1.079755428093257</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.053079136996782</v>
+        <v>1.055452674686757</v>
       </c>
       <c r="J13">
-        <v>1.036807971026626</v>
+        <v>1.065702816662267</v>
       </c>
       <c r="K13">
-        <v>1.041596733636297</v>
+        <v>1.06430063863614</v>
       </c>
       <c r="L13">
-        <v>1.040544994663489</v>
+        <v>1.076385833159767</v>
       </c>
       <c r="M13">
-        <v>1.044459604816388</v>
+        <v>1.083201261368507</v>
       </c>
       <c r="N13">
-        <v>1.012966437997178</v>
+        <v>1.02520301914088</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.008689510515995</v>
+        <v>1.059457878860899</v>
       </c>
       <c r="D14">
-        <v>1.02802747589861</v>
+        <v>1.060963699020945</v>
       </c>
       <c r="E14">
-        <v>1.027152952681057</v>
+        <v>1.07313314302185</v>
       </c>
       <c r="F14">
-        <v>1.031196017559731</v>
+        <v>1.079984451450701</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053662293658845</v>
+        <v>1.055536187829415</v>
       </c>
       <c r="J14">
-        <v>1.037740355330945</v>
+        <v>1.065862041261658</v>
       </c>
       <c r="K14">
-        <v>1.042455810141916</v>
+        <v>1.064444280673003</v>
       </c>
       <c r="L14">
-        <v>1.041596671390979</v>
+        <v>1.076571408699537</v>
       </c>
       <c r="M14">
-        <v>1.045568894330777</v>
+        <v>1.083399354834481</v>
       </c>
       <c r="N14">
-        <v>1.01332266356207</v>
+        <v>1.025261358103063</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.009476788289836</v>
+        <v>1.059592675512463</v>
       </c>
       <c r="D15">
-        <v>1.02865026890389</v>
+        <v>1.061071522017737</v>
       </c>
       <c r="E15">
-        <v>1.027896144356437</v>
+        <v>1.073266644490383</v>
       </c>
       <c r="F15">
-        <v>1.031974565163389</v>
+        <v>1.080125553702051</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054019530892728</v>
+        <v>1.055587602543124</v>
       </c>
       <c r="J15">
-        <v>1.038311830549728</v>
+        <v>1.06596011323737</v>
       </c>
       <c r="K15">
-        <v>1.042982336494027</v>
+        <v>1.064532751039359</v>
       </c>
       <c r="L15">
-        <v>1.042241365380008</v>
+        <v>1.076685724191133</v>
       </c>
       <c r="M15">
-        <v>1.046248946826631</v>
+        <v>1.083521386893624</v>
       </c>
       <c r="N15">
-        <v>1.01354096215014</v>
+        <v>1.025297278150988</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.013999606125247</v>
+        <v>1.060376957305694</v>
       </c>
       <c r="D16">
-        <v>1.032229962179699</v>
+        <v>1.061698835458963</v>
       </c>
       <c r="E16">
-        <v>1.032168372885301</v>
+        <v>1.074043528659682</v>
       </c>
       <c r="F16">
-        <v>1.036450355105191</v>
+        <v>1.080946731696236</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056068084019906</v>
+        <v>1.055886241368062</v>
       </c>
       <c r="J16">
-        <v>1.041593540081852</v>
+        <v>1.066530454740652</v>
       </c>
       <c r="K16">
-        <v>1.046005654185598</v>
+        <v>1.065047196400003</v>
       </c>
       <c r="L16">
-        <v>1.04594508635793</v>
+        <v>1.077350729799303</v>
       </c>
       <c r="M16">
-        <v>1.050156423191096</v>
+        <v>1.084231365327584</v>
       </c>
       <c r="N16">
-        <v>1.014793932250317</v>
+        <v>1.025505974728147</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.016786101470327</v>
+        <v>1.060868661660052</v>
       </c>
       <c r="D17">
-        <v>1.034436905181921</v>
+        <v>1.062092102908892</v>
       </c>
       <c r="E17">
-        <v>1.034802766386678</v>
+        <v>1.074530716319153</v>
       </c>
       <c r="F17">
-        <v>1.03921055966355</v>
+        <v>1.081461751433956</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057326868929201</v>
+        <v>1.056073027469316</v>
       </c>
       <c r="J17">
-        <v>1.043614154439797</v>
+        <v>1.06688779452925</v>
       </c>
       <c r="K17">
-        <v>1.047866920530295</v>
+        <v>1.065369464363678</v>
       </c>
       <c r="L17">
-        <v>1.048226905792804</v>
+        <v>1.077767555671831</v>
       </c>
       <c r="M17">
-        <v>1.05256432395378</v>
+        <v>1.08467645362862</v>
       </c>
       <c r="N17">
-        <v>1.01556483846132</v>
+        <v>1.02563655620766</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.018393896960054</v>
+        <v>1.061155373872302</v>
       </c>
       <c r="D18">
-        <v>1.035710807622364</v>
+        <v>1.062321407144303</v>
       </c>
       <c r="E18">
-        <v>1.036323597965981</v>
+        <v>1.074814838395908</v>
       </c>
       <c r="F18">
-        <v>1.040804129241251</v>
+        <v>1.081762124766265</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.058051967015858</v>
+        <v>1.056181781777433</v>
       </c>
       <c r="J18">
-        <v>1.044779573297852</v>
+        <v>1.067096074156139</v>
       </c>
       <c r="K18">
-        <v>1.048940337940307</v>
+        <v>1.065557283594914</v>
       </c>
       <c r="L18">
-        <v>1.04954347128059</v>
+        <v>1.078010570752731</v>
       </c>
       <c r="M18">
-        <v>1.053953835247534</v>
+        <v>1.084935972559544</v>
       </c>
       <c r="N18">
-        <v>1.016009250768958</v>
+        <v>1.025712604113335</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.018939205252532</v>
+        <v>1.061253120072868</v>
       </c>
       <c r="D19">
-        <v>1.036142953648198</v>
+        <v>1.062399580123027</v>
       </c>
       <c r="E19">
-        <v>1.036839544314848</v>
+        <v>1.074911708937099</v>
       </c>
       <c r="F19">
-        <v>1.041344770718389</v>
+        <v>1.081864539502661</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.058297687118581</v>
+        <v>1.056218831181795</v>
       </c>
       <c r="J19">
-        <v>1.045174761707826</v>
+        <v>1.06716706665875</v>
       </c>
       <c r="K19">
-        <v>1.049304312476232</v>
+        <v>1.065621299011013</v>
       </c>
       <c r="L19">
-        <v>1.049989996626373</v>
+        <v>1.078093413641092</v>
       </c>
       <c r="M19">
-        <v>1.054425134782472</v>
+        <v>1.085024446037292</v>
       </c>
       <c r="N19">
-        <v>1.01615991065057</v>
+        <v>1.025738514484393</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.016488964289286</v>
+        <v>1.060815915838614</v>
       </c>
       <c r="D20">
-        <v>1.034201515069914</v>
+        <v>1.062049917534727</v>
       </c>
       <c r="E20">
-        <v>1.03452176510861</v>
+        <v>1.074478450502126</v>
       </c>
       <c r="F20">
-        <v>1.03891612749376</v>
+        <v>1.081406497713185</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.057192764528226</v>
+        <v>1.056053007256363</v>
       </c>
       <c r="J20">
-        <v>1.043398734773805</v>
+        <v>1.066849470952262</v>
       </c>
       <c r="K20">
-        <v>1.047668498888503</v>
+        <v>1.0653349040306</v>
       </c>
       <c r="L20">
-        <v>1.047983587651902</v>
+        <v>1.077722845849343</v>
       </c>
       <c r="M20">
-        <v>1.052307540661646</v>
+        <v>1.084628709566193</v>
       </c>
       <c r="N20">
-        <v>1.01548267387028</v>
+        <v>1.025622558269068</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.008312161290224</v>
+        <v>1.059393448829263</v>
       </c>
       <c r="D21">
-        <v>1.027728999606682</v>
+        <v>1.060912161344668</v>
       </c>
       <c r="E21">
-        <v>1.02679678318272</v>
+        <v>1.073069334505474</v>
       </c>
       <c r="F21">
-        <v>1.030822909524081</v>
+        <v>1.079917011161039</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053491000687337</v>
+        <v>1.055511603728277</v>
       </c>
       <c r="J21">
-        <v>1.037466418904467</v>
+        <v>1.065815160164234</v>
       </c>
       <c r="K21">
-        <v>1.042203415258395</v>
+        <v>1.064401988392518</v>
       </c>
       <c r="L21">
-        <v>1.04128766525083</v>
+        <v>1.076516766275969</v>
       </c>
       <c r="M21">
-        <v>1.045242951714006</v>
+        <v>1.083341025389809</v>
       </c>
       <c r="N21">
-        <v>1.013218011722708</v>
+        <v>1.025244183840764</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.002997739337914</v>
+        <v>1.05849824440043</v>
       </c>
       <c r="D22">
-        <v>1.023527771079994</v>
+        <v>1.060196053612988</v>
       </c>
       <c r="E22">
-        <v>1.021783999024788</v>
+        <v>1.072182928059655</v>
       </c>
       <c r="F22">
-        <v>1.025572090930199</v>
+        <v>1.078980226621184</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051074216212253</v>
+        <v>1.055169435261312</v>
       </c>
       <c r="J22">
-        <v>1.033606920023707</v>
+        <v>1.065163472337886</v>
       </c>
       <c r="K22">
-        <v>1.038647116203075</v>
+        <v>1.063814021814985</v>
       </c>
       <c r="L22">
-        <v>1.036935920053138</v>
+        <v>1.075757422809289</v>
       </c>
       <c r="M22">
-        <v>1.04065342947877</v>
+        <v>1.082530542548295</v>
       </c>
       <c r="N22">
-        <v>1.011742902726211</v>
+        <v>1.025005215261306</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.005832247391656</v>
+        <v>1.058972890400184</v>
       </c>
       <c r="D23">
-        <v>1.025767986475986</v>
+        <v>1.060575748257112</v>
       </c>
       <c r="E23">
-        <v>1.024456847351715</v>
+        <v>1.072652871630149</v>
       </c>
       <c r="F23">
-        <v>1.028371778852577</v>
+        <v>1.079476862045121</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052364233765837</v>
+        <v>1.055350993227874</v>
       </c>
       <c r="J23">
-        <v>1.035665765574847</v>
+        <v>1.065509075677604</v>
       </c>
       <c r="K23">
-        <v>1.04054428747599</v>
+        <v>1.064125848030119</v>
       </c>
       <c r="L23">
-        <v>1.039256928988374</v>
+        <v>1.076160064108966</v>
       </c>
       <c r="M23">
-        <v>1.043101087498997</v>
+        <v>1.08296027786647</v>
       </c>
       <c r="N23">
-        <v>1.012529947050571</v>
+        <v>1.025131998696955</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.016623281770072</v>
+        <v>1.060839749684773</v>
       </c>
       <c r="D24">
-        <v>1.03430791892825</v>
+        <v>1.062068979542859</v>
       </c>
       <c r="E24">
-        <v>1.034648786066044</v>
+        <v>1.074502067317897</v>
       </c>
       <c r="F24">
-        <v>1.039049219280392</v>
+        <v>1.081431464580656</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.057253388673665</v>
+        <v>1.056062054130894</v>
       </c>
       <c r="J24">
-        <v>1.043496114235918</v>
+        <v>1.066866788192425</v>
       </c>
       <c r="K24">
-        <v>1.047758194769128</v>
+        <v>1.065350520833951</v>
       </c>
       <c r="L24">
-        <v>1.048093576959821</v>
+        <v>1.077743048640833</v>
       </c>
       <c r="M24">
-        <v>1.052423616124954</v>
+        <v>1.084650283341844</v>
       </c>
       <c r="N24">
-        <v>1.015519816676533</v>
+        <v>1.025628883699782</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.02846437555417</v>
+        <v>1.063002594596308</v>
       </c>
       <c r="D25">
-        <v>1.043697922922505</v>
+        <v>1.063798582258647</v>
       </c>
       <c r="E25">
-        <v>1.045862838011458</v>
+        <v>1.076646153400474</v>
       </c>
       <c r="F25">
-        <v>1.05080161489887</v>
+        <v>1.083698547913156</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.062571582150703</v>
+        <v>1.056879562131191</v>
       </c>
       <c r="J25">
-        <v>1.05207035718666</v>
+        <v>1.068436438584595</v>
       </c>
       <c r="K25">
-        <v>1.055653747711044</v>
+        <v>1.066765643818439</v>
       </c>
       <c r="L25">
-        <v>1.057788593034994</v>
+        <v>1.079575615364685</v>
       </c>
       <c r="M25">
-        <v>1.06265935648105</v>
+        <v>1.086607782098281</v>
       </c>
       <c r="N25">
-        <v>1.018785220055474</v>
+        <v>1.026200862719115</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_158/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_158/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.064724957604878</v>
+        <v>1.037429503707552</v>
       </c>
       <c r="D2">
-        <v>1.065175606566462</v>
+        <v>1.050818995262212</v>
       </c>
       <c r="E2">
-        <v>1.078354936185895</v>
+        <v>1.054375028754968</v>
       </c>
       <c r="F2">
-        <v>1.085505988433052</v>
+        <v>1.059726116398176</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057525501861298</v>
+        <v>1.066558893059043</v>
       </c>
       <c r="J2">
-        <v>1.069683727384349</v>
+        <v>1.058545566176406</v>
       </c>
       <c r="K2">
-        <v>1.067889554220751</v>
+        <v>1.061612988812629</v>
       </c>
       <c r="L2">
-        <v>1.081033827295637</v>
+        <v>1.065125451879951</v>
       </c>
       <c r="M2">
-        <v>1.088166242620205</v>
+        <v>1.070411659284213</v>
       </c>
       <c r="N2">
-        <v>1.026653370081924</v>
+        <v>1.021243119391566</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.065974041395738</v>
+        <v>1.043691064130599</v>
       </c>
       <c r="D3">
-        <v>1.066174040841463</v>
+        <v>1.055797843770062</v>
       </c>
       <c r="E3">
-        <v>1.079594950794325</v>
+        <v>1.060331806300349</v>
       </c>
       <c r="F3">
-        <v>1.086817963724008</v>
+        <v>1.065973707580714</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057991001003911</v>
+        <v>1.069320255638925</v>
       </c>
       <c r="J3">
-        <v>1.070586716200008</v>
+        <v>1.063057603845269</v>
       </c>
       <c r="K3">
-        <v>1.068702878649338</v>
+        <v>1.065763291989864</v>
       </c>
       <c r="L3">
-        <v>1.082090679619974</v>
+        <v>1.070246818249822</v>
       </c>
       <c r="M3">
-        <v>1.089296237341153</v>
+        <v>1.075826694114966</v>
       </c>
       <c r="N3">
-        <v>1.026979799345733</v>
+        <v>1.022950536027762</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.066781609236174</v>
+        <v>1.047636791312429</v>
       </c>
       <c r="D4">
-        <v>1.066819457602586</v>
+        <v>1.058937239231978</v>
       </c>
       <c r="E4">
-        <v>1.080397013076276</v>
+        <v>1.064090520336929</v>
       </c>
       <c r="F4">
-        <v>1.087666741834074</v>
+        <v>1.069917027836054</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058290595151519</v>
+        <v>1.071049183824373</v>
       </c>
       <c r="J4">
-        <v>1.071169798661195</v>
+        <v>1.065895740397982</v>
       </c>
       <c r="K4">
-        <v>1.069227902708966</v>
+        <v>1.068372806885542</v>
       </c>
       <c r="L4">
-        <v>1.082773654718781</v>
+        <v>1.073472394717131</v>
       </c>
       <c r="M4">
-        <v>1.090026704884704</v>
+        <v>1.079238953846311</v>
       </c>
       <c r="N4">
-        <v>1.027190039827193</v>
+        <v>1.024021890387778</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.067120952719469</v>
+        <v>1.049271419572569</v>
       </c>
       <c r="D5">
-        <v>1.067090640115097</v>
+        <v>1.060238231604317</v>
       </c>
       <c r="E5">
-        <v>1.080734128394972</v>
+        <v>1.065648842571036</v>
       </c>
       <c r="F5">
-        <v>1.088023533175576</v>
+        <v>1.071552157432926</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058416159137786</v>
+        <v>1.071762726955311</v>
       </c>
       <c r="J5">
-        <v>1.071414638541483</v>
+        <v>1.067070247765657</v>
       </c>
       <c r="K5">
-        <v>1.069448325070317</v>
+        <v>1.069452433291813</v>
       </c>
       <c r="L5">
-        <v>1.08306056935761</v>
+        <v>1.074808242206428</v>
       </c>
       <c r="M5">
-        <v>1.090333624849693</v>
+        <v>1.080652531735774</v>
       </c>
       <c r="N5">
-        <v>1.027278190688714</v>
+        <v>1.02446458982767</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.067177920804886</v>
+        <v>1.049544497772017</v>
       </c>
       <c r="D6">
-        <v>1.067136164067667</v>
+        <v>1.06045559548125</v>
       </c>
       <c r="E6">
-        <v>1.080790727412555</v>
+        <v>1.065909240828136</v>
       </c>
       <c r="F6">
-        <v>1.088083438040952</v>
+        <v>1.071825406493762</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058437219319434</v>
+        <v>1.071881769542209</v>
       </c>
       <c r="J6">
-        <v>1.071455731407838</v>
+        <v>1.067266383121717</v>
       </c>
       <c r="K6">
-        <v>1.06948531754636</v>
+        <v>1.069632707940178</v>
       </c>
       <c r="L6">
-        <v>1.083108731453457</v>
+        <v>1.075031379695701</v>
       </c>
       <c r="M6">
-        <v>1.09038514824831</v>
+        <v>1.080888677792254</v>
       </c>
       <c r="N6">
-        <v>1.027292977888953</v>
+        <v>1.024538478279968</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.066786144177561</v>
+        <v>1.04765872668083</v>
       </c>
       <c r="D7">
-        <v>1.066823081746468</v>
+        <v>1.058954695941417</v>
       </c>
       <c r="E7">
-        <v>1.08040151790604</v>
+        <v>1.064111427168641</v>
       </c>
       <c r="F7">
-        <v>1.087671509431418</v>
+        <v>1.069938964051298</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058292274456457</v>
+        <v>1.071058769771925</v>
       </c>
       <c r="J7">
-        <v>1.071173071352634</v>
+        <v>1.065911506398136</v>
       </c>
       <c r="K7">
-        <v>1.069230849171075</v>
+        <v>1.068387300333725</v>
       </c>
       <c r="L7">
-        <v>1.082777489300956</v>
+        <v>1.073490322478012</v>
       </c>
       <c r="M7">
-        <v>1.090030806623635</v>
+        <v>1.079257923135</v>
       </c>
       <c r="N7">
-        <v>1.027191218622908</v>
+        <v>1.024027835609558</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.065147232488627</v>
+        <v>1.039568310096845</v>
       </c>
       <c r="D8">
-        <v>1.065513165080281</v>
+        <v>1.052519201860586</v>
       </c>
       <c r="E8">
-        <v>1.078774070683184</v>
+        <v>1.056408639656708</v>
       </c>
       <c r="F8">
-        <v>1.085949410927949</v>
+        <v>1.06185878167387</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05768315459373</v>
+        <v>1.067504433765072</v>
       </c>
       <c r="J8">
-        <v>1.069989148830758</v>
+        <v>1.060087829779771</v>
       </c>
       <c r="K8">
-        <v>1.06816468117633</v>
+        <v>1.063031830253363</v>
       </c>
       <c r="L8">
-        <v>1.081391178909235</v>
+        <v>1.066875117074654</v>
       </c>
       <c r="M8">
-        <v>1.08854827908806</v>
+        <v>1.072261292817824</v>
       </c>
       <c r="N8">
-        <v>1.026763891901978</v>
+        <v>1.021827271435912</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.062253970031023</v>
+        <v>1.024441957346993</v>
       </c>
       <c r="D9">
-        <v>1.063199964968305</v>
+        <v>1.04050605255826</v>
       </c>
       <c r="E9">
-        <v>1.075903810372675</v>
+        <v>1.042049804490135</v>
       </c>
       <c r="F9">
-        <v>1.082913522070762</v>
+        <v>1.046804972067187</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0565973841938</v>
+        <v>1.060771100123904</v>
       </c>
       <c r="J9">
-        <v>1.067893551991011</v>
+        <v>1.04916017886839</v>
       </c>
       <c r="K9">
-        <v>1.066276293322738</v>
+        <v>1.05297443677351</v>
       </c>
       <c r="L9">
-        <v>1.078941485143874</v>
+        <v>1.05449559993326</v>
       </c>
       <c r="M9">
-        <v>1.085930291476358</v>
+        <v>1.059181718625</v>
       </c>
       <c r="N9">
-        <v>1.026003345103504</v>
+        <v>1.01767811583058</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.060321377631235</v>
+        <v>1.013682285305016</v>
       </c>
       <c r="D10">
-        <v>1.06165438130049</v>
+        <v>1.031978711395554</v>
       </c>
       <c r="E10">
-        <v>1.073988465432697</v>
+        <v>1.031868483991794</v>
       </c>
       <c r="F10">
-        <v>1.080888525508747</v>
+        <v>1.03613615880265</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.055865106337555</v>
+        <v>1.055924571254015</v>
       </c>
       <c r="J10">
-        <v>1.066490051462605</v>
+        <v>1.041363374076975</v>
       </c>
       <c r="K10">
-        <v>1.065010756097756</v>
+        <v>1.045793626678465</v>
       </c>
       <c r="L10">
-        <v>1.077303609186457</v>
+        <v>1.045685234013316</v>
       </c>
       <c r="M10">
-        <v>1.084181053335416</v>
+        <v>1.049882239920993</v>
       </c>
       <c r="N10">
-        <v>1.025491201769823</v>
+        <v>1.014706090134679</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.059483610458116</v>
+        <v>1.008840023972062</v>
       </c>
       <c r="D11">
-        <v>1.060984281673373</v>
+        <v>1.028146535417052</v>
       </c>
       <c r="E11">
-        <v>1.073158626844331</v>
+        <v>1.02729502700125</v>
       </c>
       <c r="F11">
-        <v>1.080011385929148</v>
+        <v>1.03134484957964</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.055546004437451</v>
+        <v>1.053730605478659</v>
       </c>
       <c r="J11">
-        <v>1.065880763443341</v>
+        <v>1.037849616295739</v>
       </c>
       <c r="K11">
-        <v>1.064461170106137</v>
+        <v>1.042556478310622</v>
       </c>
       <c r="L11">
-        <v>1.076593231038147</v>
+        <v>1.041719925082013</v>
       </c>
       <c r="M11">
-        <v>1.08342264991068</v>
+        <v>1.045698905495936</v>
       </c>
       <c r="N11">
-        <v>1.025268216092983</v>
+        <v>1.013364402608769</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.059172281062202</v>
+        <v>1.007011652436427</v>
       </c>
       <c r="D12">
-        <v>1.060735246501594</v>
+        <v>1.026700490763781</v>
       </c>
       <c r="E12">
-        <v>1.072850312200104</v>
+        <v>1.025569511144977</v>
       </c>
       <c r="F12">
-        <v>1.079685528238701</v>
+        <v>1.029537298446957</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.055427170585454</v>
+        <v>1.052900328080785</v>
       </c>
       <c r="J12">
-        <v>1.065654209220561</v>
+        <v>1.036522202660982</v>
       </c>
       <c r="K12">
-        <v>1.064256786674947</v>
+        <v>1.041333426754925</v>
       </c>
       <c r="L12">
-        <v>1.076329186615683</v>
+        <v>1.040222705092106</v>
       </c>
       <c r="M12">
-        <v>1.083140795931205</v>
+        <v>1.044119676026329</v>
       </c>
       <c r="N12">
-        <v>1.025185204495488</v>
+        <v>1.012857242578626</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.059239068914631</v>
+        <v>1.007405228209925</v>
       </c>
       <c r="D13">
-        <v>1.060788671327479</v>
+        <v>1.027011722720223</v>
       </c>
       <c r="E13">
-        <v>1.072916450213915</v>
+        <v>1.025940883496419</v>
       </c>
       <c r="F13">
-        <v>1.079755428093257</v>
+        <v>1.02992631981963</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.055452674686757</v>
+        <v>1.053079136996782</v>
       </c>
       <c r="J13">
-        <v>1.065702816662267</v>
+        <v>1.036807971026627</v>
       </c>
       <c r="K13">
-        <v>1.06430063863614</v>
+        <v>1.041596733636299</v>
       </c>
       <c r="L13">
-        <v>1.076385833159767</v>
+        <v>1.040544994663491</v>
       </c>
       <c r="M13">
-        <v>1.083201261368507</v>
+        <v>1.044459604816389</v>
       </c>
       <c r="N13">
-        <v>1.02520301914088</v>
+        <v>1.012966437997179</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.059457878860899</v>
+        <v>1.008689510515995</v>
       </c>
       <c r="D14">
-        <v>1.060963699020945</v>
+        <v>1.028027475898609</v>
       </c>
       <c r="E14">
-        <v>1.07313314302185</v>
+        <v>1.027152952681057</v>
       </c>
       <c r="F14">
-        <v>1.079984451450701</v>
+        <v>1.031196017559729</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.055536187829415</v>
+        <v>1.053662293658845</v>
       </c>
       <c r="J14">
-        <v>1.065862041261658</v>
+        <v>1.037740355330944</v>
       </c>
       <c r="K14">
-        <v>1.064444280673003</v>
+        <v>1.042455810141915</v>
       </c>
       <c r="L14">
-        <v>1.076571408699537</v>
+        <v>1.041596671390978</v>
       </c>
       <c r="M14">
-        <v>1.083399354834481</v>
+        <v>1.045568894330776</v>
       </c>
       <c r="N14">
-        <v>1.025261358103063</v>
+        <v>1.01332266356207</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.059592675512463</v>
+        <v>1.009476788289836</v>
       </c>
       <c r="D15">
-        <v>1.061071522017737</v>
+        <v>1.02865026890389</v>
       </c>
       <c r="E15">
-        <v>1.073266644490383</v>
+        <v>1.027896144356438</v>
       </c>
       <c r="F15">
-        <v>1.080125553702051</v>
+        <v>1.03197456516339</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.055587602543124</v>
+        <v>1.054019530892728</v>
       </c>
       <c r="J15">
-        <v>1.06596011323737</v>
+        <v>1.038311830549729</v>
       </c>
       <c r="K15">
-        <v>1.064532751039359</v>
+        <v>1.042982336494027</v>
       </c>
       <c r="L15">
-        <v>1.076685724191133</v>
+        <v>1.042241365380008</v>
       </c>
       <c r="M15">
-        <v>1.083521386893624</v>
+        <v>1.046248946826632</v>
       </c>
       <c r="N15">
-        <v>1.025297278150988</v>
+        <v>1.01354096215014</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.060376957305694</v>
+        <v>1.013999606125245</v>
       </c>
       <c r="D16">
-        <v>1.061698835458963</v>
+        <v>1.032229962179698</v>
       </c>
       <c r="E16">
-        <v>1.074043528659682</v>
+        <v>1.0321683728853</v>
       </c>
       <c r="F16">
-        <v>1.080946731696236</v>
+        <v>1.036450355105189</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055886241368062</v>
+        <v>1.056068084019905</v>
       </c>
       <c r="J16">
-        <v>1.066530454740652</v>
+        <v>1.041593540081851</v>
       </c>
       <c r="K16">
-        <v>1.065047196400003</v>
+        <v>1.046005654185598</v>
       </c>
       <c r="L16">
-        <v>1.077350729799303</v>
+        <v>1.045945086357928</v>
       </c>
       <c r="M16">
-        <v>1.084231365327584</v>
+        <v>1.050156423191094</v>
       </c>
       <c r="N16">
-        <v>1.025505974728147</v>
+        <v>1.014793932250316</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.060868661660052</v>
+        <v>1.016786101470328</v>
       </c>
       <c r="D17">
-        <v>1.062092102908892</v>
+        <v>1.034436905181921</v>
       </c>
       <c r="E17">
-        <v>1.074530716319153</v>
+        <v>1.034802766386679</v>
       </c>
       <c r="F17">
-        <v>1.081461751433956</v>
+        <v>1.039210559663551</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056073027469316</v>
+        <v>1.057326868929201</v>
       </c>
       <c r="J17">
-        <v>1.06688779452925</v>
+        <v>1.043614154439798</v>
       </c>
       <c r="K17">
-        <v>1.065369464363678</v>
+        <v>1.047866920530296</v>
       </c>
       <c r="L17">
-        <v>1.077767555671831</v>
+        <v>1.048226905792804</v>
       </c>
       <c r="M17">
-        <v>1.08467645362862</v>
+        <v>1.052564323953781</v>
       </c>
       <c r="N17">
-        <v>1.02563655620766</v>
+        <v>1.01556483846132</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.061155373872302</v>
+        <v>1.018393896960056</v>
       </c>
       <c r="D18">
-        <v>1.062321407144303</v>
+        <v>1.035710807622366</v>
       </c>
       <c r="E18">
-        <v>1.074814838395908</v>
+        <v>1.036323597965983</v>
       </c>
       <c r="F18">
-        <v>1.081762124766265</v>
+        <v>1.040804129241253</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056181781777433</v>
+        <v>1.05805196701586</v>
       </c>
       <c r="J18">
-        <v>1.067096074156139</v>
+        <v>1.044779573297854</v>
       </c>
       <c r="K18">
-        <v>1.065557283594914</v>
+        <v>1.048940337940309</v>
       </c>
       <c r="L18">
-        <v>1.078010570752731</v>
+        <v>1.049543471280592</v>
       </c>
       <c r="M18">
-        <v>1.084935972559544</v>
+        <v>1.053953835247536</v>
       </c>
       <c r="N18">
-        <v>1.025712604113335</v>
+        <v>1.016009250768959</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.061253120072868</v>
+        <v>1.01893920525253</v>
       </c>
       <c r="D19">
-        <v>1.062399580123027</v>
+        <v>1.036142953648195</v>
       </c>
       <c r="E19">
-        <v>1.074911708937099</v>
+        <v>1.036839544314846</v>
       </c>
       <c r="F19">
-        <v>1.081864539502661</v>
+        <v>1.041344770718387</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056218831181795</v>
+        <v>1.058297687118579</v>
       </c>
       <c r="J19">
-        <v>1.06716706665875</v>
+        <v>1.045174761707823</v>
       </c>
       <c r="K19">
-        <v>1.065621299011013</v>
+        <v>1.049304312476231</v>
       </c>
       <c r="L19">
-        <v>1.078093413641092</v>
+        <v>1.04998999662637</v>
       </c>
       <c r="M19">
-        <v>1.085024446037292</v>
+        <v>1.05442513478247</v>
       </c>
       <c r="N19">
-        <v>1.025738514484393</v>
+        <v>1.016159910650569</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.060815915838614</v>
+        <v>1.016488964289287</v>
       </c>
       <c r="D20">
-        <v>1.062049917534727</v>
+        <v>1.034201515069915</v>
       </c>
       <c r="E20">
-        <v>1.074478450502126</v>
+        <v>1.034521765108612</v>
       </c>
       <c r="F20">
-        <v>1.081406497713185</v>
+        <v>1.038916127493761</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056053007256363</v>
+        <v>1.057192764528227</v>
       </c>
       <c r="J20">
-        <v>1.066849470952262</v>
+        <v>1.043398734773806</v>
       </c>
       <c r="K20">
-        <v>1.0653349040306</v>
+        <v>1.047668498888505</v>
       </c>
       <c r="L20">
-        <v>1.077722845849343</v>
+        <v>1.047983587651903</v>
       </c>
       <c r="M20">
-        <v>1.084628709566193</v>
+        <v>1.052307540661648</v>
       </c>
       <c r="N20">
-        <v>1.025622558269068</v>
+        <v>1.01548267387028</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.059393448829263</v>
+        <v>1.008312161290224</v>
       </c>
       <c r="D21">
-        <v>1.060912161344668</v>
+        <v>1.027728999606681</v>
       </c>
       <c r="E21">
-        <v>1.073069334505474</v>
+        <v>1.02679678318272</v>
       </c>
       <c r="F21">
-        <v>1.079917011161039</v>
+        <v>1.03082290952408</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.055511603728277</v>
+        <v>1.053491000687336</v>
       </c>
       <c r="J21">
-        <v>1.065815160164234</v>
+        <v>1.037466418904467</v>
       </c>
       <c r="K21">
-        <v>1.064401988392518</v>
+        <v>1.042203415258395</v>
       </c>
       <c r="L21">
-        <v>1.076516766275969</v>
+        <v>1.04128766525083</v>
       </c>
       <c r="M21">
-        <v>1.083341025389809</v>
+        <v>1.045242951714006</v>
       </c>
       <c r="N21">
-        <v>1.025244183840764</v>
+        <v>1.013218011722708</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.05849824440043</v>
+        <v>1.002997739337915</v>
       </c>
       <c r="D22">
-        <v>1.060196053612988</v>
+        <v>1.023527771079995</v>
       </c>
       <c r="E22">
-        <v>1.072182928059655</v>
+        <v>1.021783999024788</v>
       </c>
       <c r="F22">
-        <v>1.078980226621184</v>
+        <v>1.0255720909302</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.055169435261312</v>
+        <v>1.051074216212254</v>
       </c>
       <c r="J22">
-        <v>1.065163472337886</v>
+        <v>1.033606920023707</v>
       </c>
       <c r="K22">
-        <v>1.063814021814985</v>
+        <v>1.038647116203076</v>
       </c>
       <c r="L22">
-        <v>1.075757422809289</v>
+        <v>1.036935920053138</v>
       </c>
       <c r="M22">
-        <v>1.082530542548295</v>
+        <v>1.040653429478771</v>
       </c>
       <c r="N22">
-        <v>1.025005215261306</v>
+        <v>1.011742902726212</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.058972890400184</v>
+        <v>1.005832247391655</v>
       </c>
       <c r="D23">
-        <v>1.060575748257112</v>
+        <v>1.025767986475986</v>
       </c>
       <c r="E23">
-        <v>1.072652871630149</v>
+        <v>1.024456847351715</v>
       </c>
       <c r="F23">
-        <v>1.079476862045121</v>
+        <v>1.028371778852576</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.055350993227874</v>
+        <v>1.052364233765836</v>
       </c>
       <c r="J23">
-        <v>1.065509075677604</v>
+        <v>1.035665765574847</v>
       </c>
       <c r="K23">
-        <v>1.064125848030119</v>
+        <v>1.04054428747599</v>
       </c>
       <c r="L23">
-        <v>1.076160064108966</v>
+        <v>1.039256928988374</v>
       </c>
       <c r="M23">
-        <v>1.08296027786647</v>
+        <v>1.043101087498997</v>
       </c>
       <c r="N23">
-        <v>1.025131998696955</v>
+        <v>1.012529947050571</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.060839749684773</v>
+        <v>1.016623281770071</v>
       </c>
       <c r="D24">
-        <v>1.062068979542859</v>
+        <v>1.034307918928249</v>
       </c>
       <c r="E24">
-        <v>1.074502067317897</v>
+        <v>1.034648786066043</v>
       </c>
       <c r="F24">
-        <v>1.081431464580656</v>
+        <v>1.03904921928039</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056062054130894</v>
+        <v>1.057253388673664</v>
       </c>
       <c r="J24">
-        <v>1.066866788192425</v>
+        <v>1.043496114235917</v>
       </c>
       <c r="K24">
-        <v>1.065350520833951</v>
+        <v>1.047758194769127</v>
       </c>
       <c r="L24">
-        <v>1.077743048640833</v>
+        <v>1.048093576959819</v>
       </c>
       <c r="M24">
-        <v>1.084650283341844</v>
+        <v>1.052423616124953</v>
       </c>
       <c r="N24">
-        <v>1.025628883699782</v>
+        <v>1.015519816676532</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.063002594596308</v>
+        <v>1.028464375554169</v>
       </c>
       <c r="D25">
-        <v>1.063798582258647</v>
+        <v>1.043697922922504</v>
       </c>
       <c r="E25">
-        <v>1.076646153400474</v>
+        <v>1.045862838011457</v>
       </c>
       <c r="F25">
-        <v>1.083698547913156</v>
+        <v>1.05080161489887</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056879562131191</v>
+        <v>1.062571582150703</v>
       </c>
       <c r="J25">
-        <v>1.068436438584595</v>
+        <v>1.052070357186658</v>
       </c>
       <c r="K25">
-        <v>1.066765643818439</v>
+        <v>1.055653747711043</v>
       </c>
       <c r="L25">
-        <v>1.079575615364685</v>
+        <v>1.057788593034993</v>
       </c>
       <c r="M25">
-        <v>1.086607782098281</v>
+        <v>1.062659356481049</v>
       </c>
       <c r="N25">
-        <v>1.026200862719115</v>
+        <v>1.018785220055474</v>
       </c>
     </row>
   </sheetData>
